--- a/public/assets/documents/cv-skills-matrix.xlsx
+++ b/public/assets/documents/cv-skills-matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexanderroan/Documents/website/alexroan/src/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953310E9-EFEC-1644-A1F6-4C7ADFEBB6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD534F-4B4F-094A-8F29-6BC977693E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{279F8791-7988-BA44-A985-6C889719CF64}"/>
   </bookViews>
